--- a/samples/tse/CATALOG_tse.xlsx
+++ b/samples/tse/CATALOG_tse.xlsx
@@ -606,6 +606,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>https://orcid.org/0000-0002-9133-9274</v>
+      </c>
       <c r="B2" t="str">
         <v>Edwin Tse</v>
       </c>
